--- a/FREIGHT 2024/APRIL-24.xlsx
+++ b/FREIGHT 2024/APRIL-24.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="315" windowWidth="23655" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="1308">
   <si>
     <t>Date</t>
   </si>
@@ -3931,18 +3926,30 @@
   </si>
   <si>
     <t>BANSHA RAM</t>
+  </si>
+  <si>
+    <t>30.05.24</t>
+  </si>
+  <si>
+    <t>ANNU SUPPLIERS</t>
+  </si>
+  <si>
+    <t>03.06.24</t>
+  </si>
+  <si>
+    <t>KAMAL PRASADYADAV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4032,7 +4039,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4048,6 +4055,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4135,7 +4148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4307,6 +4320,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4367,7 +4409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4399,10 +4441,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4434,7 +4475,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4610,15 +4650,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C447" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -4652,7 +4692,7 @@
     <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4741,7 +4781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="11">
         <v>45383</v>
       </c>
@@ -4817,7 +4857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="11">
         <v>45383</v>
       </c>
@@ -4893,7 +4933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="11">
         <v>45383</v>
       </c>
@@ -4969,7 +5009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="11">
         <v>45383</v>
       </c>
@@ -5045,7 +5085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="11">
         <v>45383</v>
       </c>
@@ -5121,7 +5161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="11">
         <v>45383</v>
       </c>
@@ -5197,7 +5237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="11">
         <v>45383</v>
       </c>
@@ -5273,7 +5313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" s="11">
         <v>45383</v>
       </c>
@@ -5349,7 +5389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="11">
         <v>45383</v>
       </c>
@@ -5425,7 +5465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="11">
         <v>45383</v>
       </c>
@@ -5501,7 +5541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="34" customFormat="1">
       <c r="A12" s="27">
         <v>45383</v>
       </c>
@@ -5577,7 +5617,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="11">
         <v>45383</v>
       </c>
@@ -5653,7 +5693,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="11">
         <v>45383</v>
       </c>
@@ -5729,7 +5769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="11">
         <v>45384</v>
       </c>
@@ -5805,7 +5845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="11">
         <v>45384</v>
       </c>
@@ -5881,7 +5921,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29">
       <c r="A17" s="11">
         <v>45384</v>
       </c>
@@ -5957,7 +5997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" s="11">
         <v>45385</v>
       </c>
@@ -6033,7 +6073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" s="11">
         <v>45385</v>
       </c>
@@ -6109,7 +6149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29">
       <c r="A20" s="11">
         <v>45385</v>
       </c>
@@ -6185,7 +6225,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29">
       <c r="A21" s="11">
         <v>45385</v>
       </c>
@@ -6261,7 +6301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29">
       <c r="A22" s="11">
         <v>45385</v>
       </c>
@@ -6337,7 +6377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29">
       <c r="A23" s="11">
         <v>45385</v>
       </c>
@@ -6413,7 +6453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29">
       <c r="A24" s="11">
         <v>45385</v>
       </c>
@@ -6489,7 +6529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29">
       <c r="A25" s="11">
         <v>45386</v>
       </c>
@@ -6565,7 +6605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29">
       <c r="A26" s="11">
         <v>45386</v>
       </c>
@@ -6641,7 +6681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29">
       <c r="A27" s="11">
         <v>45386</v>
       </c>
@@ -6717,7 +6757,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29">
       <c r="A28" s="11">
         <v>45386</v>
       </c>
@@ -6795,7 +6835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29">
       <c r="A29" s="11">
         <v>45386</v>
       </c>
@@ -6873,7 +6913,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="A30" s="11">
         <v>45387</v>
       </c>
@@ -6949,7 +6989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29">
       <c r="A31" s="11">
         <v>45387</v>
       </c>
@@ -7025,7 +7065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29">
       <c r="A32" s="11">
         <v>45387</v>
       </c>
@@ -7103,7 +7143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29">
       <c r="A33" s="11">
         <v>45387</v>
       </c>
@@ -7179,7 +7219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29">
       <c r="A34" s="11">
         <v>45388</v>
       </c>
@@ -7255,7 +7295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29">
       <c r="A35" s="11">
         <v>45388</v>
       </c>
@@ -7331,7 +7371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29">
       <c r="A36" s="11">
         <v>45388</v>
       </c>
@@ -7407,7 +7447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29">
       <c r="A37" s="11">
         <v>45388</v>
       </c>
@@ -7485,7 +7525,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29">
       <c r="A38" s="11">
         <v>45388</v>
       </c>
@@ -7561,7 +7601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" s="11">
         <v>45388</v>
       </c>
@@ -7637,7 +7677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29">
       <c r="A40" s="11">
         <v>45388</v>
       </c>
@@ -7713,7 +7753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29">
       <c r="A41" s="11">
         <v>45389</v>
       </c>
@@ -7789,7 +7829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="A42" s="11">
         <v>45390</v>
       </c>
@@ -7865,7 +7905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29">
       <c r="A43" s="11">
         <v>45390</v>
       </c>
@@ -7941,7 +7981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29">
       <c r="A44" s="11">
         <v>45390</v>
       </c>
@@ -8017,7 +8057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29">
       <c r="A45" s="11">
         <v>45390</v>
       </c>
@@ -8093,7 +8133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29">
       <c r="A46" s="11">
         <v>45391</v>
       </c>
@@ -8169,7 +8209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29">
       <c r="A47" s="11">
         <v>45391</v>
       </c>
@@ -8245,7 +8285,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29">
       <c r="A48" s="11">
         <v>45391</v>
       </c>
@@ -8323,7 +8363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29">
       <c r="A49" s="11">
         <v>45391</v>
       </c>
@@ -8399,7 +8439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29">
       <c r="A50" s="11">
         <v>45391</v>
       </c>
@@ -8475,7 +8515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29">
       <c r="A51" s="11">
         <v>45391</v>
       </c>
@@ -8551,7 +8591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29">
       <c r="A52" s="11">
         <v>45391</v>
       </c>
@@ -8627,7 +8667,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29">
       <c r="A53" s="11">
         <v>45391</v>
       </c>
@@ -8705,7 +8745,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29">
       <c r="A54" s="11">
         <v>45392</v>
       </c>
@@ -8781,7 +8821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29">
       <c r="A55" s="11">
         <v>45392</v>
       </c>
@@ -8857,7 +8897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29">
       <c r="A56" s="11">
         <v>45392</v>
       </c>
@@ -8933,7 +8973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29">
       <c r="A57" s="11">
         <v>45393</v>
       </c>
@@ -9009,7 +9049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29">
       <c r="A58" s="11">
         <v>45393</v>
       </c>
@@ -9084,7 +9124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29">
       <c r="A59" s="11">
         <v>45393</v>
       </c>
@@ -9160,7 +9200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29">
       <c r="A60" s="11">
         <v>45393</v>
       </c>
@@ -9236,7 +9276,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29">
       <c r="A61" s="11">
         <v>45394</v>
       </c>
@@ -9312,7 +9352,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29">
       <c r="A62" s="11">
         <v>45394</v>
       </c>
@@ -9388,7 +9428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29">
       <c r="A63" s="11">
         <v>45395</v>
       </c>
@@ -9464,7 +9504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29">
       <c r="A64" s="11">
         <v>45395</v>
       </c>
@@ -9540,7 +9580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29">
       <c r="A65" s="11">
         <v>45395</v>
       </c>
@@ -9616,7 +9656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29">
       <c r="A66" s="11">
         <v>45395</v>
       </c>
@@ -9692,7 +9732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29">
       <c r="A67" s="11">
         <v>45395</v>
       </c>
@@ -9768,7 +9808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29">
       <c r="A68" s="11">
         <v>45396</v>
       </c>
@@ -9844,7 +9884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29">
       <c r="A69" s="11">
         <v>45396</v>
       </c>
@@ -9920,7 +9960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29">
       <c r="A70" s="11">
         <v>45396</v>
       </c>
@@ -9996,7 +10036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29">
       <c r="A71" s="11">
         <v>45397</v>
       </c>
@@ -10072,7 +10112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29">
       <c r="A72" s="11">
         <v>45397</v>
       </c>
@@ -10148,7 +10188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29">
       <c r="A73" s="11">
         <v>45397</v>
       </c>
@@ -10224,7 +10264,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29">
       <c r="A74" s="11">
         <v>45397</v>
       </c>
@@ -10300,7 +10340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29">
       <c r="A75" s="11">
         <v>45398</v>
       </c>
@@ -10378,7 +10418,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29">
       <c r="A76" s="11">
         <v>45398</v>
       </c>
@@ -10454,7 +10494,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29">
       <c r="A77" s="11">
         <v>45398</v>
       </c>
@@ -10532,7 +10572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29">
       <c r="A78" s="11">
         <v>45398</v>
       </c>
@@ -10610,67 +10650,85 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
+    <row r="79" spans="1:29" s="52" customFormat="1">
+      <c r="A79" s="45">
         <v>45399</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="47" t="s">
         <v>654</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="47" t="s">
         <v>655</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="48">
         <v>35.44</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="49">
         <f t="shared" si="35"/>
-        <v>35.44</v>
-      </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17">
+        <v>0.50999999999999801</v>
+      </c>
+      <c r="G79" s="50">
+        <v>34.93</v>
+      </c>
+      <c r="H79" s="50">
+        <v>1700</v>
+      </c>
+      <c r="I79" s="51">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="17">
+        <v>59381</v>
+      </c>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="17">
+        <v>59381</v>
+      </c>
+      <c r="M79" s="50">
+        <v>50000</v>
+      </c>
+      <c r="N79" s="50">
+        <v>2520</v>
+      </c>
+      <c r="O79" s="50">
+        <v>311</v>
+      </c>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="51">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="17">
+        <v>6550</v>
+      </c>
+      <c r="T79" s="50">
+        <v>6550</v>
+      </c>
+      <c r="U79" s="50"/>
+      <c r="V79" s="50"/>
+      <c r="W79" s="50"/>
+      <c r="X79" s="51">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Y79" s="16"/>
-      <c r="Z79" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA79" s="16"/>
-      <c r="AB79" s="16"/>
-      <c r="AC79" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y79" s="50" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Z79" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA79" s="50" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AB79" s="50">
+        <v>96</v>
+      </c>
+      <c r="AC79" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" s="11">
         <v>45399</v>
       </c>
@@ -10746,7 +10804,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29">
       <c r="A81" s="11">
         <v>45399</v>
       </c>
@@ -10822,7 +10880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29">
       <c r="A82" s="11">
         <v>45399</v>
       </c>
@@ -10900,7 +10958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29">
       <c r="A83" s="11">
         <v>45399</v>
       </c>
@@ -10978,7 +11036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29">
       <c r="A84" s="11">
         <v>45399</v>
       </c>
@@ -11056,7 +11114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29">
       <c r="A85" s="11">
         <v>45399</v>
       </c>
@@ -11134,7 +11192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29">
       <c r="A86" s="11">
         <v>45400</v>
       </c>
@@ -11212,7 +11270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29">
       <c r="A87" s="11">
         <v>45400</v>
       </c>
@@ -11290,7 +11348,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29">
       <c r="A88" s="11">
         <v>45400</v>
       </c>
@@ -11368,7 +11426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29">
       <c r="A89" s="11">
         <v>45400</v>
       </c>
@@ -11446,7 +11504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29">
       <c r="A90" s="11">
         <v>45401</v>
       </c>
@@ -11524,7 +11582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29">
       <c r="A91" s="11">
         <v>45401</v>
       </c>
@@ -11602,7 +11660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29">
       <c r="A92" s="11">
         <v>45401</v>
       </c>
@@ -11680,7 +11738,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29">
       <c r="A93" s="11">
         <v>45401</v>
       </c>
@@ -11758,7 +11816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29">
       <c r="A94" s="11">
         <v>45401</v>
       </c>
@@ -11836,7 +11894,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29">
       <c r="A95" s="11">
         <v>45401</v>
       </c>
@@ -11914,7 +11972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29">
       <c r="A96" s="11">
         <v>45401</v>
       </c>
@@ -11992,7 +12050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29">
       <c r="A97" s="11">
         <v>45402</v>
       </c>
@@ -12068,7 +12126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29">
       <c r="A98" s="11">
         <v>45402</v>
       </c>
@@ -12146,7 +12204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29">
       <c r="A99" s="11">
         <v>45402</v>
       </c>
@@ -12224,7 +12282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29">
       <c r="A100" s="11">
         <v>45402</v>
       </c>
@@ -12302,7 +12360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29">
       <c r="A101" s="11">
         <v>45402</v>
       </c>
@@ -12380,7 +12438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29">
       <c r="A102" s="11">
         <v>45402</v>
       </c>
@@ -12458,7 +12516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29">
       <c r="A103" s="11">
         <v>45403</v>
       </c>
@@ -12536,7 +12594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29">
       <c r="A104" s="11">
         <v>45403</v>
       </c>
@@ -12614,7 +12672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29">
       <c r="A105" s="11">
         <v>45403</v>
       </c>
@@ -12692,7 +12750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29">
       <c r="A106" s="11">
         <v>45403</v>
       </c>
@@ -12770,7 +12828,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29">
       <c r="A107" s="11">
         <v>45404</v>
       </c>
@@ -12848,7 +12906,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29">
       <c r="A108" s="11">
         <v>45404</v>
       </c>
@@ -12926,7 +12984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29">
       <c r="A109" s="11">
         <v>45404</v>
       </c>
@@ -13004,7 +13062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29">
       <c r="A110" s="11">
         <v>45404</v>
       </c>
@@ -13082,7 +13140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29">
       <c r="A111" s="11">
         <v>45404</v>
       </c>
@@ -13160,7 +13218,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" s="52" customFormat="1">
       <c r="A112" s="45">
         <v>45404</v>
       </c>
@@ -13238,7 +13296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29">
       <c r="A113" s="11">
         <v>45404</v>
       </c>
@@ -13316,7 +13374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29">
       <c r="A114" s="11">
         <v>45405</v>
       </c>
@@ -13394,7 +13452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29">
       <c r="A115" s="11">
         <v>45405</v>
       </c>
@@ -13472,7 +13530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29">
       <c r="A116" s="11">
         <v>45405</v>
       </c>
@@ -13550,7 +13608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29">
       <c r="A117" s="11">
         <v>45406</v>
       </c>
@@ -13628,7 +13686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29">
       <c r="A118" s="11">
         <v>45407</v>
       </c>
@@ -13706,7 +13764,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29">
       <c r="A119" s="11">
         <v>45407</v>
       </c>
@@ -13784,7 +13842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29">
       <c r="A120" s="11">
         <v>45407</v>
       </c>
@@ -13862,7 +13920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29">
       <c r="A121" s="11">
         <v>45408</v>
       </c>
@@ -13940,7 +13998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29">
       <c r="A122" s="11">
         <v>45408</v>
       </c>
@@ -14018,7 +14076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29">
       <c r="A123" s="11">
         <v>45408</v>
       </c>
@@ -14096,7 +14154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29">
       <c r="A124" s="11">
         <v>45409</v>
       </c>
@@ -14174,7 +14232,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29">
       <c r="A125" s="11">
         <v>45409</v>
       </c>
@@ -14252,7 +14310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29">
       <c r="A126" s="11">
         <v>45409</v>
       </c>
@@ -14330,7 +14388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29">
       <c r="A127" s="11">
         <v>45409</v>
       </c>
@@ -14408,7 +14466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29">
       <c r="A128" s="11">
         <v>45410</v>
       </c>
@@ -14484,7 +14542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29">
       <c r="A129" s="11">
         <v>45410</v>
       </c>
@@ -14560,7 +14618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29">
       <c r="A130" s="11">
         <v>45410</v>
       </c>
@@ -14638,7 +14696,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29">
       <c r="A131" s="11">
         <v>45410</v>
       </c>
@@ -14716,7 +14774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29">
       <c r="A133" s="11">
         <v>45388</v>
       </c>
@@ -14792,7 +14850,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29">
       <c r="A134" s="11">
         <v>45388</v>
       </c>
@@ -14868,7 +14926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29">
       <c r="A135" s="11">
         <v>45388</v>
       </c>
@@ -14944,7 +15002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29">
       <c r="A136" s="11">
         <v>45389</v>
       </c>
@@ -15020,7 +15078,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29">
       <c r="A137" s="11">
         <v>45389</v>
       </c>
@@ -15096,7 +15154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29">
       <c r="A138" s="11">
         <v>45389</v>
       </c>
@@ -15172,7 +15230,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29">
       <c r="A139" s="11">
         <v>45389</v>
       </c>
@@ -15248,7 +15306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29">
       <c r="A140" s="11">
         <v>45390</v>
       </c>
@@ -15324,7 +15382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29">
       <c r="A141" s="11">
         <v>45390</v>
       </c>
@@ -15402,7 +15460,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29">
       <c r="A142" s="11">
         <v>45390</v>
       </c>
@@ -15478,7 +15536,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29">
       <c r="A143" s="11">
         <v>45394</v>
       </c>
@@ -15554,7 +15612,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29">
       <c r="A144" s="11">
         <v>45394</v>
       </c>
@@ -15630,7 +15688,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29">
       <c r="A145" s="11">
         <v>45395</v>
       </c>
@@ -15706,7 +15764,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29">
       <c r="A146" s="11">
         <v>45396</v>
       </c>
@@ -15782,7 +15840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29">
       <c r="A147" s="11">
         <v>45396</v>
       </c>
@@ -15860,7 +15918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29">
       <c r="A148" s="11">
         <v>45396</v>
       </c>
@@ -15936,7 +15994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29">
       <c r="A149" s="11">
         <v>45396</v>
       </c>
@@ -16012,7 +16070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29">
       <c r="A150" s="11">
         <v>45396</v>
       </c>
@@ -16088,7 +16146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29">
       <c r="A151" s="11">
         <v>45396</v>
       </c>
@@ -16164,7 +16222,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29">
       <c r="A152" s="11">
         <v>45397</v>
       </c>
@@ -16240,7 +16298,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29">
       <c r="A153" s="11">
         <v>45399</v>
       </c>
@@ -16316,7 +16374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29">
       <c r="A154" s="11">
         <v>45401</v>
       </c>
@@ -16392,7 +16450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29">
       <c r="A155" s="11">
         <v>45401</v>
       </c>
@@ -16468,7 +16526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29">
       <c r="A156" s="11">
         <v>45402</v>
       </c>
@@ -16546,7 +16604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29">
       <c r="A157" s="11">
         <v>45402</v>
       </c>
@@ -16622,7 +16680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29">
       <c r="A158" s="11">
         <v>45402</v>
       </c>
@@ -16700,7 +16758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
       <c r="C159" s="20"/>
@@ -16731,7 +16789,7 @@
       <c r="AB159" s="23"/>
       <c r="AC159" s="23"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29">
       <c r="A160" s="11">
         <v>45391</v>
       </c>
@@ -16807,7 +16865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29">
       <c r="A161" s="11">
         <v>45391</v>
       </c>
@@ -16883,7 +16941,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29">
       <c r="A162" s="11">
         <v>45391</v>
       </c>
@@ -16961,7 +17019,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29">
       <c r="A163" s="11">
         <v>45392</v>
       </c>
@@ -17037,7 +17095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29">
       <c r="A164" s="11">
         <v>45393</v>
       </c>
@@ -17113,7 +17171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29">
       <c r="A165" s="11">
         <v>45393</v>
       </c>
@@ -17191,7 +17249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29">
       <c r="A166" s="11">
         <v>45393</v>
       </c>
@@ -17267,7 +17325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29">
       <c r="A167" s="11">
         <v>45393</v>
       </c>
@@ -17343,7 +17401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29">
       <c r="A168" s="11">
         <v>45394</v>
       </c>
@@ -17419,7 +17477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29">
       <c r="A169" s="11">
         <v>45394</v>
       </c>
@@ -17497,7 +17555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29">
       <c r="A170" s="11">
         <v>45394</v>
       </c>
@@ -17573,7 +17631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29">
       <c r="A171" s="11">
         <v>45397</v>
       </c>
@@ -17649,7 +17707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29">
       <c r="A172" s="11">
         <v>45397</v>
       </c>
@@ -17725,7 +17783,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29">
       <c r="A173" s="11">
         <v>45397</v>
       </c>
@@ -17801,7 +17859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29">
       <c r="A174" s="11">
         <v>45398</v>
       </c>
@@ -17877,7 +17935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29">
       <c r="A175" s="11">
         <v>45398</v>
       </c>
@@ -17953,7 +18011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29">
       <c r="A176" s="11">
         <v>45398</v>
       </c>
@@ -18029,7 +18087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29">
       <c r="A177" s="11">
         <v>45398</v>
       </c>
@@ -18105,7 +18163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29">
       <c r="A178" s="11">
         <v>45399</v>
       </c>
@@ -18181,7 +18239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29">
       <c r="A179" s="11">
         <v>45399</v>
       </c>
@@ -18257,7 +18315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29">
       <c r="A181" s="11">
         <v>45383</v>
       </c>
@@ -18333,7 +18391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29">
       <c r="A183" s="11">
         <v>45383</v>
       </c>
@@ -18411,7 +18469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29">
       <c r="A184" s="11">
         <v>45384</v>
       </c>
@@ -18487,7 +18545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29">
       <c r="A185" s="11">
         <v>45384</v>
       </c>
@@ -18563,7 +18621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29">
       <c r="A186" s="11">
         <v>45384</v>
       </c>
@@ -18639,7 +18697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29">
       <c r="A187" s="11">
         <v>45384</v>
       </c>
@@ -18717,7 +18775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29">
       <c r="A188" s="11">
         <v>45384</v>
       </c>
@@ -18793,7 +18851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29">
       <c r="A189" s="11">
         <v>45384</v>
       </c>
@@ -18869,7 +18927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29">
       <c r="A190" s="11">
         <v>45384</v>
       </c>
@@ -18945,7 +19003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29">
       <c r="A191" s="11">
         <v>45385</v>
       </c>
@@ -19023,7 +19081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29">
       <c r="A192" s="11">
         <v>45385</v>
       </c>
@@ -19099,7 +19157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29">
       <c r="A193" s="11">
         <v>45385</v>
       </c>
@@ -19175,7 +19233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29">
       <c r="A194" s="11">
         <v>45385</v>
       </c>
@@ -19253,7 +19311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29">
       <c r="A195" s="11">
         <v>45385</v>
       </c>
@@ -19329,7 +19387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29">
       <c r="A196" s="11">
         <v>45386</v>
       </c>
@@ -19407,7 +19465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29">
       <c r="A197" s="11">
         <v>45386</v>
       </c>
@@ -19483,7 +19541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29">
       <c r="A198" s="11">
         <v>45386</v>
       </c>
@@ -19561,7 +19619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29">
       <c r="A199" s="11">
         <v>45386</v>
       </c>
@@ -19637,7 +19695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29">
       <c r="A200" s="11">
         <v>45386</v>
       </c>
@@ -19715,7 +19773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29">
       <c r="A201" s="11">
         <v>45386</v>
       </c>
@@ -19791,7 +19849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29">
       <c r="A202" s="11">
         <v>45386</v>
       </c>
@@ -19867,7 +19925,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29">
       <c r="A203" s="11">
         <v>45386</v>
       </c>
@@ -19943,7 +20001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29">
       <c r="A204" s="11">
         <v>45387</v>
       </c>
@@ -20019,7 +20077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29">
       <c r="A205" s="11">
         <v>45387</v>
       </c>
@@ -20095,7 +20153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29">
       <c r="A206" s="11">
         <v>45387</v>
       </c>
@@ -20171,7 +20229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29">
       <c r="A207" s="11">
         <v>45387</v>
       </c>
@@ -20247,7 +20305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29">
       <c r="A208" s="11">
         <v>45387</v>
       </c>
@@ -20323,7 +20381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29">
       <c r="A209" s="11">
         <v>45387</v>
       </c>
@@ -20399,7 +20457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29">
       <c r="A210" s="11">
         <v>45388</v>
       </c>
@@ -20475,7 +20533,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29">
       <c r="A211" s="11">
         <v>45388</v>
       </c>
@@ -20551,7 +20609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29">
       <c r="A212" s="11">
         <v>45388</v>
       </c>
@@ -20627,7 +20685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29">
       <c r="A213" s="11">
         <v>45388</v>
       </c>
@@ -20705,7 +20763,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29">
       <c r="A214" s="11">
         <v>45389</v>
       </c>
@@ -20781,7 +20839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29">
       <c r="A215" s="11">
         <v>45389</v>
       </c>
@@ -20857,7 +20915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29">
       <c r="A216" s="11">
         <v>45389</v>
       </c>
@@ -20935,7 +20993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29">
       <c r="A217" s="11">
         <v>45389</v>
       </c>
@@ -21011,7 +21069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29">
       <c r="A218" s="11">
         <v>45390</v>
       </c>
@@ -21087,7 +21145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29">
       <c r="A219" s="11">
         <v>45390</v>
       </c>
@@ -21165,7 +21223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29">
       <c r="A220" s="11">
         <v>45391</v>
       </c>
@@ -21241,7 +21299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29">
       <c r="A221" s="11">
         <v>45393</v>
       </c>
@@ -21317,7 +21375,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29">
       <c r="A222" s="11">
         <v>45394</v>
       </c>
@@ -21393,7 +21451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29">
       <c r="A223" s="11">
         <v>45394</v>
       </c>
@@ -21469,7 +21527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="224" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" s="34" customFormat="1">
       <c r="A224" s="27">
         <v>45397</v>
       </c>
@@ -21531,7 +21589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" s="34" customFormat="1">
       <c r="A225" s="27">
         <v>45397</v>
       </c>
@@ -21593,7 +21651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29">
       <c r="A227" s="11">
         <v>45383</v>
       </c>
@@ -21669,7 +21727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29">
       <c r="A228" s="11">
         <v>45383</v>
       </c>
@@ -21747,7 +21805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29">
       <c r="A229" s="11">
         <v>45385</v>
       </c>
@@ -21825,7 +21883,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29">
       <c r="A230" s="11">
         <v>45385</v>
       </c>
@@ -21903,7 +21961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29">
       <c r="A231" s="11">
         <v>45385</v>
       </c>
@@ -21981,7 +22039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29">
       <c r="A232" s="11">
         <v>45385</v>
       </c>
@@ -22059,7 +22117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29">
       <c r="A234" s="11">
         <v>45383</v>
       </c>
@@ -22137,7 +22195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29">
       <c r="A235" s="11">
         <v>45383</v>
       </c>
@@ -22215,7 +22273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29">
       <c r="A236" s="11">
         <v>45384</v>
       </c>
@@ -22293,7 +22351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29">
       <c r="A237" s="11">
         <v>45384</v>
       </c>
@@ -22371,7 +22429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29">
       <c r="A238" s="11">
         <v>45385</v>
       </c>
@@ -22449,7 +22507,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29">
       <c r="A239" s="11">
         <v>45386</v>
       </c>
@@ -22525,7 +22583,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29">
       <c r="A240" s="11">
         <v>45386</v>
       </c>
@@ -22603,7 +22661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29">
       <c r="A241" s="11">
         <v>45386</v>
       </c>
@@ -22679,7 +22737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29">
       <c r="A242" s="11">
         <v>45386</v>
       </c>
@@ -22755,7 +22813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29">
       <c r="A243" s="11">
         <v>45386</v>
       </c>
@@ -22833,7 +22891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29">
       <c r="A244" s="11">
         <v>45386</v>
       </c>
@@ -22909,7 +22967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29">
       <c r="A245" s="11">
         <v>45386</v>
       </c>
@@ -22985,7 +23043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29">
       <c r="A246" s="11">
         <v>45387</v>
       </c>
@@ -23061,7 +23119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29">
       <c r="A247" s="11">
         <v>45387</v>
       </c>
@@ -23139,7 +23197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29">
       <c r="A248" s="11">
         <v>45387</v>
       </c>
@@ -23215,7 +23273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29">
       <c r="A249" s="11">
         <v>45387</v>
       </c>
@@ -23291,7 +23349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29">
       <c r="A250" s="11">
         <v>45387</v>
       </c>
@@ -23369,7 +23427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29">
       <c r="A251" s="11">
         <v>45387</v>
       </c>
@@ -23447,7 +23505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29">
       <c r="A252" s="11">
         <v>45387</v>
       </c>
@@ -23525,7 +23583,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29">
       <c r="A253" s="11">
         <v>45387</v>
       </c>
@@ -23601,7 +23659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29">
       <c r="A254" s="11">
         <v>45388</v>
       </c>
@@ -23679,7 +23737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29">
       <c r="A255" s="11">
         <v>45388</v>
       </c>
@@ -23757,7 +23815,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29">
       <c r="A256" s="11">
         <v>45388</v>
       </c>
@@ -23835,7 +23893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29">
       <c r="A257" s="11">
         <v>45389</v>
       </c>
@@ -23911,7 +23969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29">
       <c r="A258" s="11">
         <v>45389</v>
       </c>
@@ -23987,7 +24045,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29">
       <c r="A259" s="11">
         <v>45389</v>
       </c>
@@ -24063,7 +24121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29">
       <c r="A260" s="11">
         <v>45389</v>
       </c>
@@ -24139,7 +24197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29">
       <c r="A261" s="11">
         <v>45389</v>
       </c>
@@ -24215,7 +24273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29">
       <c r="A262" s="11">
         <v>45389</v>
       </c>
@@ -24293,7 +24351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29">
       <c r="A263" s="11">
         <v>45389</v>
       </c>
@@ -24371,7 +24429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29">
       <c r="A264" s="11">
         <v>45390</v>
       </c>
@@ -24447,7 +24505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29">
       <c r="A265" s="11">
         <v>45390</v>
       </c>
@@ -24523,7 +24581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29">
       <c r="A266" s="11">
         <v>45390</v>
       </c>
@@ -24601,7 +24659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29">
       <c r="A267" s="11">
         <v>45390</v>
       </c>
@@ -24677,7 +24735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29">
       <c r="A268" s="11">
         <v>45390</v>
       </c>
@@ -24755,7 +24813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29">
       <c r="A269" s="11">
         <v>45390</v>
       </c>
@@ -24831,7 +24889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29">
       <c r="A270" s="11">
         <v>45390</v>
       </c>
@@ -24907,7 +24965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29">
       <c r="A271" s="11">
         <v>45390</v>
       </c>
@@ -24983,7 +25041,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29">
       <c r="A272" s="11">
         <v>45391</v>
       </c>
@@ -25061,7 +25119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:30">
       <c r="A273" s="11">
         <v>45392</v>
       </c>
@@ -25139,7 +25197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:30">
       <c r="A274" s="11">
         <v>45392</v>
       </c>
@@ -25217,7 +25275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:30">
       <c r="A275" s="11">
         <v>45392</v>
       </c>
@@ -25293,7 +25351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:30">
       <c r="A276" s="11">
         <v>45392</v>
       </c>
@@ -25369,7 +25427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:30">
       <c r="A277" s="11">
         <v>45393</v>
       </c>
@@ -25447,7 +25505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:30">
       <c r="A278" s="11">
         <v>45393</v>
       </c>
@@ -25523,7 +25581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:30">
       <c r="A279" s="11">
         <v>45393</v>
       </c>
@@ -25599,7 +25657,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:30">
       <c r="A280" s="11">
         <v>45393</v>
       </c>
@@ -25675,11 +25733,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:30">
       <c r="A282" s="11">
         <v>45384</v>
       </c>
-      <c r="B282" s="12" t="s">
+      <c r="B282" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C282" s="13" t="s">
@@ -25756,11 +25814,11 @@
         <v>548</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:30">
       <c r="A283" s="11">
         <v>45386</v>
       </c>
-      <c r="B283" s="12" t="s">
+      <c r="B283" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C283" s="13" t="s">
@@ -25834,11 +25892,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:30">
       <c r="A284" s="11">
         <v>45405</v>
       </c>
-      <c r="B284" s="12" t="s">
+      <c r="B284" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C284" s="13" t="s">
@@ -25910,11 +25968,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:30">
       <c r="A285" s="11">
         <v>45405</v>
       </c>
-      <c r="B285" s="12" t="s">
+      <c r="B285" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C285" s="13" t="s">
@@ -25990,11 +26048,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:30">
       <c r="A286" s="11">
         <v>45405</v>
       </c>
-      <c r="B286" s="12" t="s">
+      <c r="B286" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C286" s="13" t="s">
@@ -26068,11 +26126,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:30">
       <c r="A287" s="11">
         <v>45406</v>
       </c>
-      <c r="B287" s="12" t="s">
+      <c r="B287" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C287" s="13" t="s">
@@ -26146,11 +26204,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:30">
       <c r="A288" s="11">
         <v>45406</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="B288" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C288" s="13" t="s">
@@ -26224,7 +26282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29">
       <c r="A290" s="11">
         <v>45388</v>
       </c>
@@ -26302,7 +26360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29">
       <c r="A291" s="11">
         <v>45391</v>
       </c>
@@ -26380,7 +26438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29">
       <c r="A292" s="11">
         <v>45391</v>
       </c>
@@ -26458,7 +26516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29">
       <c r="A293" s="11">
         <v>45397</v>
       </c>
@@ -26536,7 +26594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29">
       <c r="A294" s="11">
         <v>45397</v>
       </c>
@@ -26612,7 +26670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29">
       <c r="A295" s="11">
         <v>45397</v>
       </c>
@@ -26688,7 +26746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29">
       <c r="A296" s="11">
         <v>45399</v>
       </c>
@@ -26766,7 +26824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="297" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" s="43" customFormat="1">
       <c r="A297" s="36">
         <v>45399</v>
       </c>
@@ -26842,7 +26900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29">
       <c r="A298" s="11">
         <v>45400</v>
       </c>
@@ -26920,7 +26978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29">
       <c r="A299" s="11">
         <v>45400</v>
       </c>
@@ -26998,7 +27056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29">
       <c r="A300" s="11">
         <v>45404</v>
       </c>
@@ -27074,7 +27132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29">
       <c r="A301" s="11">
         <v>45404</v>
       </c>
@@ -27150,7 +27208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29">
       <c r="A302" s="11">
         <v>45404</v>
       </c>
@@ -27228,7 +27286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29">
       <c r="A303" s="11">
         <v>45405</v>
       </c>
@@ -27306,7 +27364,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29">
       <c r="A304" s="11">
         <v>45405</v>
       </c>
@@ -27384,7 +27442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29">
       <c r="A305" s="11">
         <v>45406</v>
       </c>
@@ -27462,7 +27520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29">
       <c r="A306" s="11">
         <v>45406</v>
       </c>
@@ -27538,7 +27596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29">
       <c r="A307" s="11">
         <v>45406</v>
       </c>
@@ -27614,7 +27672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29">
       <c r="A308" s="11">
         <v>45407</v>
       </c>
@@ -27690,7 +27748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29">
       <c r="A309" s="11">
         <v>45408</v>
       </c>
@@ -27766,7 +27824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29">
       <c r="A310" s="11">
         <v>45408</v>
       </c>
@@ -27844,7 +27902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29">
       <c r="A311" s="11">
         <v>45408</v>
       </c>
@@ -27920,7 +27978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29">
       <c r="A312" s="11">
         <v>45408</v>
       </c>
@@ -27996,7 +28054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29">
       <c r="A313" s="11">
         <v>45408</v>
       </c>
@@ -28074,7 +28132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:29">
       <c r="A314" s="11">
         <v>45408</v>
       </c>
@@ -28152,7 +28210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:29">
       <c r="A315" s="11">
         <v>45408</v>
       </c>
@@ -28228,67 +28286,83 @@
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A316" s="11">
+    <row r="316" spans="1:29" s="71" customFormat="1">
+      <c r="A316" s="45">
         <v>45408</v>
       </c>
-      <c r="B316" s="12" t="s">
+      <c r="B316" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="C316" s="13" t="s">
+      <c r="C316" s="47" t="s">
         <v>1058</v>
       </c>
-      <c r="D316" s="13" t="s">
+      <c r="D316" s="47" t="s">
         <v>1059</v>
       </c>
-      <c r="E316" s="14">
+      <c r="E316" s="48">
         <v>34.840000000000003</v>
       </c>
-      <c r="F316" s="15">
+      <c r="F316" s="70">
         <f t="shared" si="240"/>
-        <v>34.840000000000003</v>
-      </c>
-      <c r="G316" s="16"/>
-      <c r="H316" s="16"/>
-      <c r="I316" s="17">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="G316" s="50">
+        <v>34.53</v>
+      </c>
+      <c r="H316" s="50">
+        <v>1600</v>
+      </c>
+      <c r="I316" s="51">
         <f t="shared" si="241"/>
-        <v>0</v>
-      </c>
-      <c r="J316" s="16"/>
-      <c r="K316" s="16"/>
-      <c r="L316" s="17">
+        <v>55248</v>
+      </c>
+      <c r="J316" s="50"/>
+      <c r="K316" s="50"/>
+      <c r="L316" s="51">
         <f t="shared" si="242"/>
-        <v>0</v>
-      </c>
-      <c r="M316" s="16"/>
-      <c r="N316" s="16"/>
-      <c r="O316" s="16"/>
-      <c r="P316" s="16"/>
-      <c r="Q316" s="16"/>
-      <c r="R316" s="16"/>
-      <c r="S316" s="17">
+        <v>55248</v>
+      </c>
+      <c r="M316" s="50">
+        <v>32000</v>
+      </c>
+      <c r="N316" s="50"/>
+      <c r="O316" s="50">
+        <v>348</v>
+      </c>
+      <c r="P316" s="50"/>
+      <c r="Q316" s="50"/>
+      <c r="R316" s="50"/>
+      <c r="S316" s="51">
         <f t="shared" si="243"/>
-        <v>0</v>
-      </c>
-      <c r="T316" s="16"/>
-      <c r="U316" s="16"/>
-      <c r="V316" s="16"/>
-      <c r="W316" s="16"/>
-      <c r="X316" s="17">
+        <v>22900</v>
+      </c>
+      <c r="T316" s="50">
+        <v>22900</v>
+      </c>
+      <c r="U316" s="50"/>
+      <c r="V316" s="50"/>
+      <c r="W316" s="50"/>
+      <c r="X316" s="51">
         <f t="shared" si="244"/>
         <v>0</v>
       </c>
-      <c r="Y316" s="16"/>
-      <c r="Z316" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA316" s="16"/>
-      <c r="AB316" s="16"/>
-      <c r="AC316" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y316" s="50" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Z316" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA316" s="50" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AB316" s="50">
+        <v>91</v>
+      </c>
+      <c r="AC316" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29">
       <c r="A317" s="11">
         <v>45409</v>
       </c>
@@ -28366,7 +28440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:29">
       <c r="A318" s="11">
         <v>45410</v>
       </c>
@@ -28444,7 +28518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:29">
       <c r="A319" s="11">
         <v>45410</v>
       </c>
@@ -28520,7 +28594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:29">
       <c r="A320" s="11">
         <v>45410</v>
       </c>
@@ -28598,7 +28672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:29">
       <c r="A321" s="11">
         <v>45410</v>
       </c>
@@ -28678,7 +28752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:29">
       <c r="A322" s="11">
         <v>45411</v>
       </c>
@@ -28758,7 +28832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:29">
       <c r="A323" s="11">
         <v>45411</v>
       </c>
@@ -28836,7 +28910,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:29">
       <c r="A324" s="11">
         <v>45411</v>
       </c>
@@ -28914,7 +28988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:29">
       <c r="A325" s="11">
         <v>45412</v>
       </c>
@@ -28992,7 +29066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29">
       <c r="A326" s="11">
         <v>45412</v>
       </c>
@@ -29068,71 +29142,71 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A328" s="11">
+    <row r="328" spans="1:29" s="68" customFormat="1">
+      <c r="A328" s="61">
         <v>45387</v>
       </c>
-      <c r="B328" s="12" t="s">
+      <c r="B328" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="C328" s="13" t="s">
+      <c r="C328" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="D328" s="13" t="s">
+      <c r="D328" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="E328" s="14">
+      <c r="E328" s="64">
         <v>41.77</v>
       </c>
-      <c r="F328" s="15">
+      <c r="F328" s="65">
         <f t="shared" ref="F328:F329" si="255">SUM(E328-G328)</f>
         <v>41.77</v>
       </c>
-      <c r="G328" s="16"/>
-      <c r="H328" s="16"/>
-      <c r="I328" s="17">
+      <c r="G328" s="66"/>
+      <c r="H328" s="66"/>
+      <c r="I328" s="67">
         <f t="shared" ref="I328:I329" si="256">G328*H328</f>
         <v>0</v>
       </c>
-      <c r="J328" s="16"/>
-      <c r="K328" s="16"/>
-      <c r="L328" s="17">
+      <c r="J328" s="66"/>
+      <c r="K328" s="66"/>
+      <c r="L328" s="67">
         <f t="shared" ref="L328:L329" si="257">I328+J328+K328</f>
         <v>0</v>
       </c>
-      <c r="M328" s="16"/>
-      <c r="N328" s="16"/>
-      <c r="O328" s="16"/>
-      <c r="P328" s="16"/>
-      <c r="Q328" s="16"/>
-      <c r="R328" s="16"/>
-      <c r="S328" s="17">
+      <c r="M328" s="66"/>
+      <c r="N328" s="66"/>
+      <c r="O328" s="66"/>
+      <c r="P328" s="66"/>
+      <c r="Q328" s="66"/>
+      <c r="R328" s="66"/>
+      <c r="S328" s="67">
         <f t="shared" ref="S328:S329" si="258">L328-M328-N328-O328-P328-Q328-R328</f>
         <v>0</v>
       </c>
-      <c r="T328" s="16"/>
-      <c r="U328" s="16"/>
-      <c r="V328" s="16"/>
-      <c r="W328" s="16"/>
-      <c r="X328" s="17">
+      <c r="T328" s="66"/>
+      <c r="U328" s="66"/>
+      <c r="V328" s="66"/>
+      <c r="W328" s="66"/>
+      <c r="X328" s="67">
         <f t="shared" ref="X328:X329" si="259">S328-T328-U328-V328-W328</f>
         <v>0</v>
       </c>
-      <c r="Y328" s="16"/>
-      <c r="Z328" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA328" s="16"/>
-      <c r="AB328" s="16"/>
-      <c r="AC328" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y328" s="66"/>
+      <c r="Z328" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA328" s="66"/>
+      <c r="AB328" s="66"/>
+      <c r="AC328" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
       <c r="A329" s="11">
         <v>45387</v>
       </c>
-      <c r="B329" s="12" t="s">
+      <c r="B329" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C329" s="13" t="s">
@@ -29204,11 +29278,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:29">
       <c r="A330" s="11">
         <v>45390</v>
       </c>
-      <c r="B330" s="12" t="s">
+      <c r="B330" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C330" s="13" t="s">
@@ -29280,11 +29354,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:29">
       <c r="A331" s="11">
         <v>45390</v>
       </c>
-      <c r="B331" s="12" t="s">
+      <c r="B331" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C331" s="13" t="s">
@@ -29356,11 +29430,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29">
       <c r="A332" s="11">
         <v>45390</v>
       </c>
-      <c r="B332" s="12" t="s">
+      <c r="B332" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C332" s="13" t="s">
@@ -29432,11 +29506,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:29">
       <c r="A333" s="11">
         <v>45390</v>
       </c>
-      <c r="B333" s="12" t="s">
+      <c r="B333" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C333" s="13" t="s">
@@ -29508,11 +29582,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:29">
       <c r="A334" s="11">
         <v>45392</v>
       </c>
-      <c r="B334" s="12" t="s">
+      <c r="B334" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C334" s="13" t="s">
@@ -29584,11 +29658,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:29">
       <c r="A335" s="11">
         <v>45393</v>
       </c>
-      <c r="B335" s="12" t="s">
+      <c r="B335" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C335" s="13" t="s">
@@ -29662,11 +29736,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:29">
       <c r="A336" s="11">
         <v>45394</v>
       </c>
-      <c r="B336" s="12" t="s">
+      <c r="B336" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C336" s="13" t="s">
@@ -29738,11 +29812,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:29">
       <c r="A337" s="11">
         <v>45394</v>
       </c>
-      <c r="B337" s="12" t="s">
+      <c r="B337" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C337" s="13" t="s">
@@ -29814,11 +29888,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:29">
       <c r="A338" s="11">
         <v>45398</v>
       </c>
-      <c r="B338" s="12" t="s">
+      <c r="B338" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C338" s="13" t="s">
@@ -29890,11 +29964,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:29">
       <c r="A339" s="11">
         <v>45399</v>
       </c>
-      <c r="B339" s="12" t="s">
+      <c r="B339" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C339" s="13" t="s">
@@ -29966,11 +30040,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:29">
       <c r="A340" s="11">
         <v>45400</v>
       </c>
-      <c r="B340" s="12" t="s">
+      <c r="B340" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C340" s="13" t="s">
@@ -30044,11 +30118,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:29">
       <c r="A341" s="11">
         <v>45400</v>
       </c>
-      <c r="B341" s="12" t="s">
+      <c r="B341" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C341" s="13" t="s">
@@ -30122,11 +30196,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:29">
       <c r="A342" s="11">
         <v>45400</v>
       </c>
-      <c r="B342" s="12" t="s">
+      <c r="B342" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C342" s="13" t="s">
@@ -30200,11 +30274,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:29">
       <c r="A343" s="11">
         <v>45401</v>
       </c>
-      <c r="B343" s="12" t="s">
+      <c r="B343" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C343" s="13" t="s">
@@ -30276,11 +30350,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:29">
       <c r="A344" s="11">
         <v>45402</v>
       </c>
-      <c r="B344" s="12" t="s">
+      <c r="B344" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C344" s="13" t="s">
@@ -30352,11 +30426,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29">
       <c r="A345" s="11">
         <v>45404</v>
       </c>
-      <c r="B345" s="12" t="s">
+      <c r="B345" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C345" s="13" t="s">
@@ -30428,11 +30502,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29">
       <c r="A346" s="11">
         <v>45404</v>
       </c>
-      <c r="B346" s="12" t="s">
+      <c r="B346" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C346" s="13" t="s">
@@ -30504,11 +30578,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29">
       <c r="A347" s="11">
         <v>45405</v>
       </c>
-      <c r="B347" s="12" t="s">
+      <c r="B347" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C347" s="13" t="s">
@@ -30580,11 +30654,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29">
       <c r="A348" s="11">
         <v>45405</v>
       </c>
-      <c r="B348" s="12" t="s">
+      <c r="B348" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C348" s="13" t="s">
@@ -30656,11 +30730,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:29">
       <c r="A349" s="11">
         <v>45408</v>
       </c>
-      <c r="B349" s="12" t="s">
+      <c r="B349" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C349" s="13" t="s">
@@ -30732,11 +30806,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29">
       <c r="A350" s="11">
         <v>45408</v>
       </c>
-      <c r="B350" s="12" t="s">
+      <c r="B350" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C350" s="13" t="s">
@@ -30810,11 +30884,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:29">
       <c r="A351" s="11">
         <v>45409</v>
       </c>
-      <c r="B351" s="12" t="s">
+      <c r="B351" s="62" t="s">
         <v>218</v>
       </c>
       <c r="C351" s="13" t="s">
@@ -30886,11 +30960,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29">
       <c r="A353" s="11">
         <v>45387</v>
       </c>
-      <c r="B353" s="12" t="s">
+      <c r="B353" s="62" t="s">
         <v>271</v>
       </c>
       <c r="C353" s="13" t="s">
@@ -30962,11 +31036,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:29">
       <c r="A354" s="11">
         <v>45390</v>
       </c>
-      <c r="B354" s="12" t="s">
+      <c r="B354" s="62" t="s">
         <v>387</v>
       </c>
       <c r="C354" s="13" t="s">
@@ -31038,11 +31112,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:29">
       <c r="A355" s="11">
         <v>45391</v>
       </c>
-      <c r="B355" s="12" t="s">
+      <c r="B355" s="62" t="s">
         <v>387</v>
       </c>
       <c r="C355" s="13" t="s">
@@ -31114,11 +31188,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:29">
       <c r="A356" s="11">
         <v>45399</v>
       </c>
-      <c r="B356" s="12" t="s">
+      <c r="B356" s="62" t="s">
         <v>271</v>
       </c>
       <c r="C356" s="13" t="s">
@@ -31190,11 +31264,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:29">
       <c r="A357" s="11">
         <v>45399</v>
       </c>
-      <c r="B357" s="12" t="s">
+      <c r="B357" s="62" t="s">
         <v>271</v>
       </c>
       <c r="C357" s="13" t="s">
@@ -31266,11 +31340,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:29">
       <c r="A358" s="11">
         <v>45400</v>
       </c>
-      <c r="B358" s="12" t="s">
+      <c r="B358" s="62" t="s">
         <v>387</v>
       </c>
       <c r="C358" s="13" t="s">
@@ -31342,11 +31416,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:29">
       <c r="A359" s="11">
         <v>45401</v>
       </c>
-      <c r="B359" s="12" t="s">
+      <c r="B359" s="62" t="s">
         <v>387</v>
       </c>
       <c r="C359" s="13" t="s">
@@ -31420,11 +31494,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="360" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:29" s="43" customFormat="1">
       <c r="A360" s="36">
         <v>45402</v>
       </c>
-      <c r="B360" s="37" t="s">
+      <c r="B360" s="69" t="s">
         <v>387</v>
       </c>
       <c r="C360" s="38" t="s">
@@ -31498,11 +31572,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:29">
       <c r="A361" s="11">
         <v>45404</v>
       </c>
-      <c r="B361" s="12" t="s">
+      <c r="B361" s="62" t="s">
         <v>387</v>
       </c>
       <c r="C361" s="13" t="s">
@@ -31574,7 +31648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:29">
       <c r="A363" s="11">
         <v>45391</v>
       </c>
@@ -31650,7 +31724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:29">
       <c r="A364" s="11">
         <v>45391</v>
       </c>
@@ -31726,7 +31800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29">
       <c r="A365" s="11">
         <v>45393</v>
       </c>
@@ -31802,7 +31876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29">
       <c r="A366" s="11">
         <v>45395</v>
       </c>
@@ -31878,7 +31952,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29">
       <c r="A367" s="11">
         <v>45395</v>
       </c>
@@ -31954,7 +32028,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29">
       <c r="A368" s="11">
         <v>45395</v>
       </c>
@@ -32030,7 +32104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29">
       <c r="A369" s="11">
         <v>45396</v>
       </c>
@@ -32106,7 +32180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29">
       <c r="A370" s="11">
         <v>45397</v>
       </c>
@@ -32184,7 +32258,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29">
       <c r="A371" s="11">
         <v>45400</v>
       </c>
@@ -32260,7 +32334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:29">
       <c r="A372" s="11">
         <v>45400</v>
       </c>
@@ -32336,7 +32410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:29">
       <c r="A373" s="11">
         <v>45401</v>
       </c>
@@ -32412,7 +32486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:29">
       <c r="A374" s="11">
         <v>45401</v>
       </c>
@@ -32488,7 +32562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:29">
       <c r="A375" s="11">
         <v>45402</v>
       </c>
@@ -32566,7 +32640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:29">
       <c r="A376" s="11">
         <v>45402</v>
       </c>
@@ -32642,7 +32716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:29">
       <c r="A377" s="11">
         <v>45402</v>
       </c>
@@ -32718,7 +32792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:29">
       <c r="A378" s="11">
         <v>45402</v>
       </c>
@@ -32794,7 +32868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:29">
       <c r="A379" s="11">
         <v>45403</v>
       </c>
@@ -32870,7 +32944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:29">
       <c r="A380" s="11">
         <v>45403</v>
       </c>
@@ -32946,7 +33020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:29">
       <c r="A381" s="11">
         <v>45403</v>
       </c>
@@ -33022,7 +33096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:29">
       <c r="A382" s="11">
         <v>45403</v>
       </c>
@@ -33098,7 +33172,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:29">
       <c r="A383" s="11">
         <v>45403</v>
       </c>
@@ -33174,7 +33248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="384" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:29" s="34" customFormat="1">
       <c r="A384" s="27">
         <v>45403</v>
       </c>
@@ -33250,7 +33324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:30">
       <c r="A385" s="11">
         <v>45404</v>
       </c>
@@ -33326,7 +33400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:30">
       <c r="A386" s="11">
         <v>45404</v>
       </c>
@@ -33402,7 +33476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:30">
       <c r="A387" s="11">
         <v>45404</v>
       </c>
@@ -33478,7 +33552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:30">
       <c r="A388" s="11">
         <v>45405</v>
       </c>
@@ -33554,7 +33628,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:30">
       <c r="A389" s="11">
         <v>45406</v>
       </c>
@@ -33630,7 +33704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:30">
       <c r="A390" s="11">
         <v>45406</v>
       </c>
@@ -33706,7 +33780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:30">
       <c r="A391" s="11">
         <v>45407</v>
       </c>
@@ -33782,7 +33856,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:30">
       <c r="A392" s="11">
         <v>45407</v>
       </c>
@@ -33858,7 +33932,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:30">
       <c r="A393" s="11">
         <v>45408</v>
       </c>
@@ -33934,7 +34008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="394" spans="1:30" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:30" s="34" customFormat="1">
       <c r="A394" s="27">
         <v>45408</v>
       </c>
@@ -34013,7 +34087,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:30">
       <c r="A395" s="11">
         <v>45409</v>
       </c>
@@ -34089,7 +34163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="396" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:30" s="60" customFormat="1">
       <c r="A396" s="53">
         <v>45409</v>
       </c>
@@ -34165,7 +34239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:30">
       <c r="A397" s="11">
         <v>45409</v>
       </c>
@@ -34241,7 +34315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:30">
       <c r="A398" s="11">
         <v>45410</v>
       </c>
@@ -34317,7 +34391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:30">
       <c r="A399" s="11">
         <v>45410</v>
       </c>
@@ -34393,7 +34467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:30">
       <c r="A400" s="11">
         <v>45410</v>
       </c>
@@ -34469,7 +34543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:29" s="34" customFormat="1">
       <c r="A401" s="27">
         <v>45410</v>
       </c>
@@ -34545,7 +34619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:29">
       <c r="A402" s="11">
         <v>45410</v>
       </c>
@@ -34621,7 +34695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:29">
       <c r="A403" s="11">
         <v>45411</v>
       </c>
@@ -34697,7 +34771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:29">
       <c r="A404" s="11">
         <v>45411</v>
       </c>
@@ -34775,7 +34849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:29">
       <c r="A405" s="11">
         <v>45412</v>
       </c>
@@ -34851,7 +34925,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:29">
       <c r="A406" s="11">
         <v>45412</v>
       </c>
@@ -34927,7 +35001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:29">
       <c r="A407" s="11">
         <v>45412</v>
       </c>
@@ -35003,7 +35077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:29">
       <c r="A408" s="11">
         <v>45412</v>
       </c>
@@ -35079,7 +35153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:29">
       <c r="A410" s="11">
         <v>45394</v>
       </c>
@@ -35157,7 +35231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:29">
       <c r="A411" s="11">
         <v>45397</v>
       </c>
@@ -35233,7 +35307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="413" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:29" s="34" customFormat="1">
       <c r="A413" s="27">
         <v>45399</v>
       </c>
@@ -35295,7 +35369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="414" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:29" s="34" customFormat="1">
       <c r="A414" s="27">
         <v>45400</v>
       </c>
@@ -35357,11 +35431,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:29">
       <c r="A416" s="11">
         <v>45399</v>
       </c>
-      <c r="B416" s="12" t="s">
+      <c r="B416" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C416" s="13" t="s">
@@ -35437,11 +35511,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:29">
       <c r="A417" s="11">
         <v>45399</v>
       </c>
-      <c r="B417" s="12" t="s">
+      <c r="B417" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C417" s="13" t="s">
@@ -35517,11 +35591,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:29">
       <c r="A418" s="11">
         <v>45403</v>
       </c>
-      <c r="B418" s="12" t="s">
+      <c r="B418" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C418" s="13" t="s">
@@ -35593,11 +35667,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:29">
       <c r="A419" s="11">
         <v>45403</v>
       </c>
-      <c r="B419" s="12" t="s">
+      <c r="B419" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C419" s="13" t="s">
@@ -35671,11 +35745,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:29">
       <c r="A420" s="11">
         <v>45403</v>
       </c>
-      <c r="B420" s="12" t="s">
+      <c r="B420" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C420" s="13" t="s">
@@ -35749,11 +35823,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:29">
       <c r="A421" s="11">
         <v>45403</v>
       </c>
-      <c r="B421" s="12" t="s">
+      <c r="B421" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C421" s="13" t="s">
@@ -35825,11 +35899,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:29">
       <c r="A422" s="11">
         <v>45403</v>
       </c>
-      <c r="B422" s="12" t="s">
+      <c r="B422" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C422" s="13" t="s">
@@ -35901,11 +35975,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:29">
       <c r="A423" s="11">
         <v>45403</v>
       </c>
-      <c r="B423" s="12" t="s">
+      <c r="B423" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C423" s="13" t="s">
@@ -35977,11 +36051,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:29">
       <c r="A424" s="11">
         <v>45403</v>
       </c>
-      <c r="B424" s="12" t="s">
+      <c r="B424" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C424" s="13" t="s">
@@ -36053,11 +36127,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:29">
       <c r="A425" s="11">
         <v>45403</v>
       </c>
-      <c r="B425" s="12" t="s">
+      <c r="B425" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C425" s="13" t="s">
@@ -36129,11 +36203,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:29">
       <c r="A426" s="11">
         <v>45404</v>
       </c>
-      <c r="B426" s="12" t="s">
+      <c r="B426" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C426" s="13" t="s">
@@ -36205,11 +36279,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:29">
       <c r="A427" s="11">
         <v>45404</v>
       </c>
-      <c r="B427" s="12" t="s">
+      <c r="B427" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C427" s="13" t="s">
@@ -36281,11 +36355,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:29">
       <c r="A428" s="11">
         <v>45404</v>
       </c>
-      <c r="B428" s="12" t="s">
+      <c r="B428" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C428" s="13" t="s">
@@ -36357,11 +36431,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:29">
       <c r="A429" s="11">
         <v>45404</v>
       </c>
-      <c r="B429" s="12" t="s">
+      <c r="B429" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C429" s="13" t="s">
@@ -36433,11 +36507,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:29">
       <c r="A430" s="11">
         <v>45405</v>
       </c>
-      <c r="B430" s="12" t="s">
+      <c r="B430" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C430" s="13" t="s">
@@ -36509,11 +36583,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:29">
       <c r="A431" s="11">
         <v>45405</v>
       </c>
-      <c r="B431" s="12" t="s">
+      <c r="B431" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C431" s="13" t="s">
@@ -36587,11 +36661,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:29">
       <c r="A432" s="11">
         <v>45405</v>
       </c>
-      <c r="B432" s="12" t="s">
+      <c r="B432" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C432" s="13" t="s">
@@ -36663,11 +36737,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:29">
       <c r="A433" s="11">
         <v>45405</v>
       </c>
-      <c r="B433" s="12" t="s">
+      <c r="B433" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C433" s="13" t="s">
@@ -36739,11 +36813,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:29">
       <c r="A434" s="11">
         <v>45406</v>
       </c>
-      <c r="B434" s="12" t="s">
+      <c r="B434" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C434" s="13" t="s">
@@ -36817,11 +36891,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:29">
       <c r="A435" s="11">
         <v>45406</v>
       </c>
-      <c r="B435" s="12" t="s">
+      <c r="B435" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C435" s="13" t="s">
@@ -36895,11 +36969,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:29">
       <c r="A436" s="11">
         <v>45406</v>
       </c>
-      <c r="B436" s="12" t="s">
+      <c r="B436" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C436" s="13" t="s">
@@ -36975,11 +37049,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:29">
       <c r="A437" s="11">
         <v>45407</v>
       </c>
-      <c r="B437" s="12" t="s">
+      <c r="B437" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C437" s="13" t="s">
@@ -37053,11 +37127,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:29">
       <c r="A438" s="11">
         <v>45408</v>
       </c>
-      <c r="B438" s="12" t="s">
+      <c r="B438" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C438" s="13" t="s">
@@ -37129,11 +37203,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:29">
       <c r="A439" s="11">
         <v>45409</v>
       </c>
-      <c r="B439" s="12" t="s">
+      <c r="B439" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C439" s="13" t="s">
@@ -37207,11 +37281,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:29">
       <c r="A440" s="11">
         <v>45409</v>
       </c>
-      <c r="B440" s="12" t="s">
+      <c r="B440" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C440" s="13" t="s">
@@ -37287,11 +37361,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:29">
       <c r="A441" s="11">
         <v>45409</v>
       </c>
-      <c r="B441" s="12" t="s">
+      <c r="B441" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C441" s="13" t="s">
@@ -37363,11 +37437,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:29">
       <c r="A442" s="11">
         <v>45410</v>
       </c>
-      <c r="B442" s="12" t="s">
+      <c r="B442" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C442" s="13" t="s">
@@ -37441,11 +37515,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:29">
       <c r="A443" s="11">
         <v>45410</v>
       </c>
-      <c r="B443" s="12" t="s">
+      <c r="B443" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C443" s="13" t="s">
@@ -37521,11 +37595,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:29">
       <c r="A444" s="11">
         <v>45411</v>
       </c>
-      <c r="B444" s="12" t="s">
+      <c r="B444" s="62" t="s">
         <v>677</v>
       </c>
       <c r="C444" s="13" t="s">
@@ -37597,11 +37671,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:29">
       <c r="A446" s="11">
         <v>45400</v>
       </c>
-      <c r="B446" s="12" t="s">
+      <c r="B446" s="62" t="s">
         <v>697</v>
       </c>
       <c r="C446" s="13" t="s">
@@ -37673,11 +37747,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:29">
       <c r="A447" s="11">
         <v>45400</v>
       </c>
-      <c r="B447" s="12" t="s">
+      <c r="B447" s="62" t="s">
         <v>697</v>
       </c>
       <c r="C447" s="13" t="s">
@@ -37749,11 +37823,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:29">
       <c r="A448" s="11">
         <v>45401</v>
       </c>
-      <c r="B448" s="12" t="s">
+      <c r="B448" s="62" t="s">
         <v>697</v>
       </c>
       <c r="C448" s="13" t="s">
@@ -37825,11 +37899,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:29">
       <c r="A449" s="11">
         <v>45401</v>
       </c>
-      <c r="B449" s="12" t="s">
+      <c r="B449" s="62" t="s">
         <v>697</v>
       </c>
       <c r="C449" s="13" t="s">
@@ -37901,11 +37975,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:29">
       <c r="A450" s="11">
         <v>45401</v>
       </c>
-      <c r="B450" s="12" t="s">
+      <c r="B450" s="62" t="s">
         <v>697</v>
       </c>
       <c r="C450" s="13" t="s">
@@ -37977,11 +38051,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:29">
       <c r="A452" s="11">
         <v>45408</v>
       </c>
-      <c r="B452" s="12" t="s">
+      <c r="B452" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C452" s="13" t="s">
@@ -38055,11 +38129,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:29">
       <c r="A453" s="11">
         <v>45408</v>
       </c>
-      <c r="B453" s="12" t="s">
+      <c r="B453" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C453" s="13" t="s">
@@ -38133,11 +38207,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:29">
       <c r="A454" s="11">
         <v>45408</v>
       </c>
-      <c r="B454" s="12" t="s">
+      <c r="B454" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C454" s="13" t="s">
@@ -38211,11 +38285,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:29">
       <c r="A455" s="11">
         <v>45408</v>
       </c>
-      <c r="B455" s="12" t="s">
+      <c r="B455" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C455" s="13" t="s">
@@ -38289,11 +38363,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:29">
       <c r="A456" s="11">
         <v>45408</v>
       </c>
-      <c r="B456" s="12" t="s">
+      <c r="B456" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C456" s="13" t="s">
@@ -38367,11 +38441,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:29">
       <c r="A457" s="11">
         <v>45408</v>
       </c>
-      <c r="B457" s="12" t="s">
+      <c r="B457" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C457" s="13" t="s">
@@ -38445,11 +38519,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:29">
       <c r="A458" s="11">
         <v>45408</v>
       </c>
-      <c r="B458" s="12" t="s">
+      <c r="B458" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C458" s="13" t="s">
@@ -38523,11 +38597,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:29">
       <c r="A459" s="11">
         <v>45409</v>
       </c>
-      <c r="B459" s="12" t="s">
+      <c r="B459" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C459" s="13" t="s">
@@ -38601,11 +38675,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:29">
       <c r="A460" s="11">
         <v>45409</v>
       </c>
-      <c r="B460" s="12" t="s">
+      <c r="B460" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C460" s="13" t="s">
@@ -38679,11 +38753,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:29">
       <c r="A461" s="11">
         <v>45411</v>
       </c>
-      <c r="B461" s="12" t="s">
+      <c r="B461" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C461" s="13" t="s">
@@ -38757,11 +38831,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:29">
       <c r="A462" s="11">
         <v>45411</v>
       </c>
-      <c r="B462" s="12" t="s">
+      <c r="B462" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C462" s="13" t="s">
@@ -38835,11 +38909,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:29">
       <c r="A463" s="11">
         <v>45411</v>
       </c>
-      <c r="B463" s="12" t="s">
+      <c r="B463" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C463" s="13" t="s">
@@ -38913,11 +38987,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:29">
       <c r="A464" s="11">
         <v>45411</v>
       </c>
-      <c r="B464" s="12" t="s">
+      <c r="B464" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C464" s="13" t="s">
@@ -38989,11 +39063,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:29">
       <c r="A465" s="11">
         <v>45411</v>
       </c>
-      <c r="B465" s="12" t="s">
+      <c r="B465" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C465" s="13" t="s">
@@ -39065,11 +39139,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:29">
       <c r="A466" s="11">
         <v>45411</v>
       </c>
-      <c r="B466" s="12" t="s">
+      <c r="B466" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C466" s="13" t="s">
@@ -39141,11 +39215,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:29">
       <c r="A467" s="11">
         <v>45411</v>
       </c>
-      <c r="B467" s="12" t="s">
+      <c r="B467" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="C467" s="13" t="s">
@@ -39219,7 +39293,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:29">
       <c r="A469" s="11">
         <v>45399</v>
       </c>
@@ -39279,11 +39353,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:29">
       <c r="A471" s="11">
         <v>45410</v>
       </c>
-      <c r="B471" s="12" t="s">
+      <c r="B471" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C471" s="13" t="s">
@@ -39355,11 +39429,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:29">
       <c r="A472" s="11">
         <v>45410</v>
       </c>
-      <c r="B472" s="12" t="s">
+      <c r="B472" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C472" s="13" t="s">
@@ -39431,11 +39505,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:29">
       <c r="A473" s="11">
         <v>45410</v>
       </c>
-      <c r="B473" s="12" t="s">
+      <c r="B473" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C473" s="13" t="s">
@@ -39507,11 +39581,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:29">
       <c r="A474" s="11">
         <v>45410</v>
       </c>
-      <c r="B474" s="12" t="s">
+      <c r="B474" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C474" s="13" t="s">
@@ -39583,11 +39657,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:29">
       <c r="A475" s="11">
         <v>45411</v>
       </c>
-      <c r="B475" s="12" t="s">
+      <c r="B475" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C475" s="13" t="s">
@@ -39659,11 +39733,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:29">
       <c r="A476" s="11">
         <v>45412</v>
       </c>
-      <c r="B476" s="12" t="s">
+      <c r="B476" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C476" s="13" t="s">
@@ -39735,11 +39809,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:29">
       <c r="A477" s="11">
         <v>45412</v>
       </c>
-      <c r="B477" s="12" t="s">
+      <c r="B477" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C477" s="13" t="s">
@@ -39811,11 +39885,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:29">
       <c r="A478" s="11">
         <v>45412</v>
       </c>
-      <c r="B478" s="12" t="s">
+      <c r="B478" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C478" s="13" t="s">
@@ -39887,7 +39961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:29">
       <c r="A480" s="11">
         <v>45411</v>
       </c>
@@ -39965,7 +40039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:29">
       <c r="A481" s="11">
         <v>45411</v>
       </c>
@@ -40043,7 +40117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:29">
       <c r="A482" s="11">
         <v>45411</v>
       </c>
